--- a/data/dados_linaza.xlsx
+++ b/data/dados_linaza.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\UFSC\orientacaoes\TCC\tcc_felipe_flaxsalinity\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3EBFF82-84A9-40BC-A115-8340E6210730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$101</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Genotipo</t>
-  </si>
-  <si>
-    <t>Dose</t>
-  </si>
-  <si>
-    <t>Repeticao</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>G1</t>
   </si>
@@ -43,39 +57,48 @@
     <t>G7</t>
   </si>
   <si>
-    <t>Comprimento(mm)</t>
+    <t>comp_plant</t>
   </si>
   <si>
-    <t>PesoVerde(mg)</t>
+    <t>massa_verde</t>
   </si>
   <si>
-    <t>PesoSeco(mg)</t>
+    <t>massa_seca</t>
   </si>
   <si>
-    <t>IVG</t>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>dose</t>
+  </si>
+  <si>
+    <t>rep</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -85,7 +108,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -95,39 +118,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -317,144 +344,146 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="10" max="11" width="14.38"/>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J2" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K2" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2">
-        <v>37.3</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="M2" s="2">
         <v>9.6</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" ref="N2:N101" si="1">SUM((D2/1)+(E2/2)+(F2/3)+(G2/4)+(H2/5)+(I2/6)+(J2/7))</f>
-        <v>0.9285714286</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J3" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K3" s="2">
         <v>57.33</v>
@@ -465,41 +494,37 @@
       <c r="M3" s="2">
         <v>49.8</v>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" si="1"/>
-        <v>7.742857143</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I4" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J4" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2">
         <v>53.1</v>
@@ -508,88 +533,80 @@
         <v>802.2</v>
       </c>
       <c r="M4" s="2">
-        <v>72.0</v>
-      </c>
-      <c r="N4" s="3">
-        <f t="shared" si="1"/>
-        <v>10.25714286</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J5" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K5" s="2">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2">
-        <v>631.2</v>
+        <v>631.20000000000005</v>
       </c>
       <c r="M5" s="2">
         <v>48.4</v>
       </c>
-      <c r="N5" s="3">
-        <f t="shared" si="1"/>
-        <v>7.961904762</v>
-      </c>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J6" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K6" s="2">
         <v>35.5</v>
@@ -600,41 +617,37 @@
       <c r="M6" s="2">
         <v>60.7</v>
       </c>
-      <c r="N6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.154761905</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B7" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C7" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2">
         <v>17.66</v>
@@ -645,41 +658,37 @@
       <c r="M7" s="2">
         <v>9.1</v>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7619047619</v>
-      </c>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B8" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G8" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H8" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I8" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="J8" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K8" s="2">
         <v>29.18</v>
@@ -690,44 +699,40 @@
       <c r="M8" s="2">
         <v>39.1</v>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" si="1"/>
-        <v>6.280952381</v>
-      </c>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I9" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J9" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K9" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2">
         <v>479.3</v>
@@ -735,41 +740,37 @@
       <c r="M9" s="2">
         <v>46.1</v>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" si="1"/>
-        <v>5.54047619</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K10" s="2">
         <v>30.17</v>
@@ -778,43 +779,39 @@
         <v>473.3</v>
       </c>
       <c r="M10" s="2">
-        <v>51.0</v>
-      </c>
-      <c r="N10" s="3">
-        <f t="shared" si="1"/>
-        <v>8.145238095</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B11" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G11" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I11" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K11" s="2">
         <v>30.5</v>
@@ -825,89 +822,81 @@
       <c r="M11" s="2">
         <v>42.7</v>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" si="1"/>
-        <v>3.79047619</v>
-      </c>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="L12" s="2">
-        <v>36.7</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="M12" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.5095238095</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J13" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K13" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="L13" s="2">
         <v>72.7</v>
@@ -915,41 +904,37 @@
       <c r="M13" s="2">
         <v>8.1</v>
       </c>
-      <c r="N13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7619047619</v>
-      </c>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G14" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I14" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="J14" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2">
         <v>15.7</v>
@@ -958,46 +943,42 @@
         <v>355.9</v>
       </c>
       <c r="M14" s="2">
-        <v>48.0</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" si="1"/>
-        <v>4.654761905</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J15" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K15" s="2">
-        <v>18.44</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="L15" s="2">
         <v>214.3</v>
@@ -1005,221 +986,201 @@
       <c r="M15" s="2">
         <v>20.2</v>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" si="1"/>
-        <v>2.985714286</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B16" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C16" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="K16" s="4">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3">
         <v>13.41</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="3">
         <v>261.5</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <v>44.8</v>
       </c>
-      <c r="N16" s="3">
-        <f t="shared" si="1"/>
-        <v>3.980952381</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="L17" s="2">
         <v>29.6</v>
       </c>
       <c r="M17" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="N17" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3095238095</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L18" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N18" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B19" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C19" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C20" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J20" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="2">
         <v>10.25</v>
@@ -1228,313 +1189,285 @@
         <v>66.8</v>
       </c>
       <c r="M20" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="N20" s="3">
-        <f t="shared" si="1"/>
-        <v>1.238095238</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B21" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C21" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L21" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B22" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L22" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B23" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C23" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B24" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C24" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M24" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N24" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L26" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N26" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G27" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H27" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J27" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K27" s="2">
         <v>48.3</v>
@@ -1545,89 +1478,81 @@
       <c r="M27" s="2">
         <v>21.8</v>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" si="1"/>
-        <v>1.923809524</v>
-      </c>
-    </row>
-    <row r="28">
+    </row>
+    <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C28" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E28" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G28" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I28" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J28" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K28" s="2">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="L28" s="2">
-        <v>633.0</v>
+        <v>633</v>
       </c>
       <c r="M28" s="2">
         <v>46.4</v>
       </c>
-      <c r="N28" s="3">
-        <f t="shared" si="1"/>
-        <v>12.82619048</v>
-      </c>
-    </row>
-    <row r="29">
+    </row>
+    <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C29" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E29" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H29" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2">
-        <v>20.0</v>
+        <v>21</v>
       </c>
       <c r="K29" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="L29" s="2">
         <v>877.4</v>
@@ -1635,41 +1560,37 @@
       <c r="M29" s="2">
         <v>61.1</v>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" si="1"/>
-        <v>18.19047619</v>
-      </c>
-    </row>
-    <row r="30">
+    </row>
+    <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C30" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H30" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J30" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="K30" s="2">
         <v>49.5</v>
@@ -1680,266 +1601,242 @@
       <c r="M30" s="2">
         <v>71.8</v>
       </c>
-      <c r="N30" s="3">
-        <f t="shared" si="1"/>
-        <v>14.12619048</v>
-      </c>
-    </row>
-    <row r="31">
+    </row>
+    <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C31" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E31" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G31" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H31" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I31" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J31" s="2">
-        <v>21.0</v>
+        <v>22</v>
       </c>
       <c r="K31" s="2">
         <v>86.9</v>
       </c>
       <c r="L31" s="2">
-        <v>951.0</v>
+        <v>951</v>
       </c>
       <c r="M31" s="2">
         <v>74.8</v>
       </c>
-      <c r="N31" s="3">
-        <f t="shared" si="1"/>
-        <v>15.31666667</v>
-      </c>
-    </row>
-    <row r="32">
+    </row>
+    <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J32" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K32" s="2">
-        <v>33.3</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="L32" s="2">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="M32" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="N32" s="3">
-        <f t="shared" si="1"/>
-        <v>1.661904762</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B33" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C33" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G33" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H33" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I33" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J33" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K33" s="2">
         <v>51.9</v>
       </c>
       <c r="L33" s="2">
-        <v>708.0</v>
+        <v>708</v>
       </c>
       <c r="M33" s="2">
         <v>58.6</v>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" si="1"/>
-        <v>10.17380952</v>
-      </c>
-    </row>
-    <row r="34">
+    </row>
+    <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B34" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E34" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H34" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I34" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2">
         <v>67.5</v>
       </c>
       <c r="L34" s="2">
-        <v>678.0</v>
+        <v>678</v>
       </c>
       <c r="M34" s="2">
         <v>60.2</v>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" si="1"/>
-        <v>13.90238095</v>
-      </c>
-    </row>
-    <row r="35">
+    </row>
+    <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E35" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G35" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="J35" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="K35" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="L35" s="2">
-        <v>684.0</v>
+        <v>684</v>
       </c>
       <c r="M35" s="2">
         <v>55.5</v>
       </c>
-      <c r="N35" s="3">
-        <f t="shared" si="1"/>
-        <v>11.27142857</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B36" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C36" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E36" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="I36" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J36" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K36" s="2">
         <v>42.3</v>
@@ -1950,176 +1847,160 @@
       <c r="M36" s="2">
         <v>50.2</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="1"/>
-        <v>9.728571429</v>
-      </c>
-    </row>
-    <row r="37">
+    </row>
+    <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B37" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C37" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="2">
         <v>8.33</v>
       </c>
       <c r="L37" s="2">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="M37" s="2">
         <v>14.4</v>
       </c>
-      <c r="N37" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4285714286</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B38" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F38" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G38" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I38" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K38" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L38" s="2">
-        <v>163.3</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="M38" s="2">
         <v>27.1</v>
       </c>
-      <c r="N38" s="3">
-        <f t="shared" si="1"/>
-        <v>3.692857143</v>
-      </c>
-    </row>
-    <row r="39">
+    </row>
+    <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B39" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E39" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H39" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I39" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J39" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="K39" s="2">
         <v>24.2</v>
       </c>
       <c r="L39" s="2">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="M39" s="2">
         <v>26.8</v>
       </c>
-      <c r="N39" s="3">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="40">
+    </row>
+    <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B40" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C40" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E40" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F40" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G40" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I40" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J40" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K40" s="2">
         <v>28.3</v>
@@ -2130,41 +2011,37 @@
       <c r="M40" s="2">
         <v>26.3</v>
       </c>
-      <c r="N40" s="3">
-        <f t="shared" si="1"/>
-        <v>5.069047619</v>
-      </c>
-    </row>
-    <row r="41">
+    </row>
+    <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B41" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C41" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G41" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H41" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I41" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J41" s="2">
-        <v>11.0</v>
+        <v>13</v>
       </c>
       <c r="K41" s="2">
         <v>22.9</v>
@@ -2173,91 +2050,83 @@
         <v>336.5</v>
       </c>
       <c r="M41" s="2">
-        <v>35.7</v>
-      </c>
-      <c r="N41" s="3">
-        <f t="shared" si="1"/>
-        <v>6.538095238</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B42" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C42" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L42" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="M42" s="2">
         <v>13.1</v>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" si="1"/>
-        <v>0.1428571429</v>
-      </c>
-    </row>
-    <row r="43">
+    </row>
+    <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B43" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C43" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J43" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K43" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L43" s="2">
         <v>32.5</v>
@@ -2265,2622 +2134,2386 @@
       <c r="M43" s="2">
         <v>12.6</v>
       </c>
-      <c r="N43" s="3">
-        <f t="shared" si="1"/>
-        <v>0.619047619</v>
-      </c>
-    </row>
-    <row r="44">
+    </row>
+    <row r="44" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B44" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C44" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N44" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C45" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L45" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="M45" s="2">
         <v>2.6</v>
       </c>
-      <c r="N45" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3095238095</v>
-      </c>
-    </row>
-    <row r="46">
+    </row>
+    <row r="46" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B46" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H46" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I46" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J46" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K46" s="2">
         <v>15.25</v>
       </c>
       <c r="L46" s="2">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="M46" s="2">
         <v>16.5</v>
       </c>
-      <c r="N46" s="3">
-        <f t="shared" si="1"/>
-        <v>1.071428571</v>
-      </c>
-    </row>
-    <row r="47">
+    </row>
+    <row r="47" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B47" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C47" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L47" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L48" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N48" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B49" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L49" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M49" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N49" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B50" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C50" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L50" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N50" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B51" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C51" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L51" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N51" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G52" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I52" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K52" s="2">
         <v>97.6</v>
       </c>
       <c r="L52" s="2">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="M52" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="N52" s="3">
-        <f t="shared" si="1"/>
-        <v>2.54047619</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C53" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E53" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="H53" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="I53" s="2">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="J53" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="K53" s="2">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="L53" s="2">
-        <v>1340.0</v>
+        <v>1340</v>
       </c>
       <c r="M53" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="N53" s="3">
-        <f t="shared" si="1"/>
-        <v>19.57857143</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C54" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E54" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G54" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H54" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I54" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J54" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K54" s="2">
         <v>87.3</v>
       </c>
       <c r="L54" s="2">
-        <v>985.0</v>
+        <v>985</v>
       </c>
       <c r="M54" s="2">
-        <v>67.0</v>
-      </c>
-      <c r="N54" s="3">
-        <f t="shared" si="1"/>
-        <v>12.11666667</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C55" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E55" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H55" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="I55" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J55" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K55" s="2">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="L55" s="2">
         <v>88.12</v>
       </c>
       <c r="M55" s="2">
-        <v>49.0</v>
-      </c>
-      <c r="N55" s="3">
-        <f t="shared" si="1"/>
-        <v>12.69761905</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C56" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E56" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G56" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="H56" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I56" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="J56" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K56" s="2">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="L56" s="2">
-        <v>1145.0</v>
+        <v>1145</v>
       </c>
       <c r="M56" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="N56" s="3">
-        <f t="shared" si="1"/>
-        <v>16.93333333</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B57" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G57" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I57" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J57" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K57" s="2">
         <v>51.6</v>
       </c>
       <c r="L57" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="M57" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="N57" s="3">
-        <f t="shared" si="1"/>
-        <v>1.888095238</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B58" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G58" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H58" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I58" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J58" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K58" s="2">
         <v>51.7</v>
       </c>
       <c r="L58" s="2">
-        <v>824.0</v>
+        <v>824</v>
       </c>
       <c r="M58" s="2">
         <v>55.5</v>
       </c>
-      <c r="N58" s="3">
-        <f t="shared" si="1"/>
-        <v>10.98095238</v>
-      </c>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B59" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E59" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H59" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I59" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J59" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="K59" s="2">
         <v>63.3</v>
       </c>
       <c r="L59" s="2">
-        <v>848.0</v>
+        <v>848</v>
       </c>
       <c r="M59" s="2">
-        <v>62.0</v>
-      </c>
-      <c r="N59" s="3">
-        <f t="shared" si="1"/>
-        <v>13.75</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C60" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E60" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H60" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I60" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="J60" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K60" s="2">
         <v>55.9</v>
       </c>
       <c r="L60" s="2">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="M60" s="2">
-        <v>54.0</v>
-      </c>
-      <c r="N60" s="3">
-        <f t="shared" si="1"/>
-        <v>13.62380952</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B61" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G61" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H61" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="I61" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J61" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K61" s="2">
         <v>50.25</v>
       </c>
       <c r="L61" s="2">
-        <v>695.0</v>
+        <v>695</v>
       </c>
       <c r="M61" s="2">
-        <v>59.0</v>
-      </c>
-      <c r="N61" s="3">
-        <f t="shared" si="1"/>
-        <v>11.40714286</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B62" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C62" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L62" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N62" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B63" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C63" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G63" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H63" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="I63" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K63" s="2">
         <v>28.3</v>
       </c>
       <c r="L63" s="2">
-        <v>221.0</v>
+        <v>221</v>
       </c>
       <c r="M63" s="2">
         <v>15.5</v>
       </c>
-      <c r="N63" s="3">
-        <f t="shared" si="1"/>
-        <v>3.94047619</v>
-      </c>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B64" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C64" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E64" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H64" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I64" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J64" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K64" s="2">
         <v>25.8</v>
       </c>
       <c r="L64" s="2">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="M64" s="2">
-        <v>37.0</v>
-      </c>
-      <c r="N64" s="3">
-        <f t="shared" si="1"/>
-        <v>7.55</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B65" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G65" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H65" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="I65" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="J65" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="K65" s="2">
         <v>15.5</v>
       </c>
       <c r="L65" s="2">
-        <v>414.0</v>
+        <v>414</v>
       </c>
       <c r="M65" s="2">
-        <v>39.0</v>
-      </c>
-      <c r="N65" s="3">
-        <f t="shared" si="1"/>
-        <v>7.016666667</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B66" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G66" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H66" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I66" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J66" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K66" s="2">
         <v>30.5</v>
       </c>
       <c r="L66" s="2">
-        <v>308.0</v>
+        <v>308</v>
       </c>
       <c r="M66" s="2">
-        <v>36.0</v>
-      </c>
-      <c r="N66" s="3">
-        <f t="shared" si="1"/>
-        <v>5.319047619</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B67" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J67" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K67" s="2">
-        <v>16.6</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="L67" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="M67" s="2">
         <v>6.4</v>
       </c>
-      <c r="N67" s="3">
-        <f t="shared" si="1"/>
-        <v>0.9285714286</v>
-      </c>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C68" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L68" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M68" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N68" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G69" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I69" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J69" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K69" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L69" s="2">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="M69" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="N69" s="3">
-        <f t="shared" si="1"/>
-        <v>1.664285714</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B70" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I70" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J70" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K70" s="2">
-        <v>8.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="L70" s="2">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="M70" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="N70" s="3">
-        <f t="shared" si="1"/>
-        <v>2.071428571</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B71" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C71" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G71" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I71" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J71" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K71" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L71" s="2">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="M71" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="N71" s="3">
-        <f t="shared" si="1"/>
-        <v>3.435714286</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B72" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C72" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L72" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N72" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B73" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C73" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H73" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J73" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L73" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="M73" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N73" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3095238095</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B74" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C74" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L74" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M74" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N74" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B75" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C75" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H75" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I75" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L75" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M75" s="2">
         <v>1.8</v>
       </c>
-      <c r="N75" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3095238095</v>
-      </c>
-    </row>
-    <row r="76">
+    </row>
+    <row r="76" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B76" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H76" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I76" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J76" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K76" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L76" s="2">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="M76" s="2">
         <v>11.5</v>
       </c>
-      <c r="N76" s="3">
-        <f t="shared" si="1"/>
-        <v>0.7619047619</v>
-      </c>
-    </row>
-    <row r="77">
+    </row>
+    <row r="77" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C77" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F77" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="J77" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K77" s="2">
         <v>5.25</v>
       </c>
       <c r="L77" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="M77" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="N77" s="3">
-        <f t="shared" si="1"/>
-        <v>1.519047619</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C78" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E78" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F78" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H78" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I78" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J78" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K78" s="2">
-        <v>118.0</v>
+        <v>118</v>
       </c>
       <c r="L78" s="2">
-        <v>1044.0</v>
+        <v>1044</v>
       </c>
       <c r="M78" s="2">
-        <v>56.0</v>
-      </c>
-      <c r="N78" s="3">
-        <f t="shared" si="1"/>
-        <v>17.06428571</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C79" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E79" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F79" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G79" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H79" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="I79" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J79" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="K79" s="2">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="L79" s="2">
-        <v>716.0</v>
+        <v>716</v>
       </c>
       <c r="M79" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="N79" s="3">
-        <f t="shared" si="1"/>
-        <v>12.01904762</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E80" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G80" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H80" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="I80" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J80" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K80" s="2">
         <v>98.6</v>
       </c>
       <c r="L80" s="2">
-        <v>852.0</v>
+        <v>852</v>
       </c>
       <c r="M80" s="2">
-        <v>53.0</v>
-      </c>
-      <c r="N80" s="3">
-        <f t="shared" si="1"/>
-        <v>14.39761905</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C81" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E81" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F81" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G81" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H81" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="I81" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J81" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K81" s="2">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="L81" s="2">
-        <v>759.0</v>
+        <v>759</v>
       </c>
       <c r="M81" s="2">
         <v>46.7</v>
       </c>
-      <c r="N81" s="3">
-        <f t="shared" si="1"/>
-        <v>13.2952381</v>
-      </c>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B82" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C82" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I82" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J82" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K82" s="2">
-        <v>19.6</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>168.0</v>
+        <v>168</v>
       </c>
       <c r="M82" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="N82" s="3">
-        <f t="shared" si="1"/>
-        <v>0.8571428571</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C83" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G83" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H83" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I83" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="J83" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="K83" s="2">
         <v>53.2</v>
       </c>
       <c r="L83" s="2">
-        <v>752.0</v>
+        <v>752</v>
       </c>
       <c r="M83" s="2">
-        <v>55.0</v>
-      </c>
-      <c r="N83" s="3">
-        <f t="shared" si="1"/>
-        <v>13.26190476</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B84" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E84" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F84" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G84" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H84" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="I84" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="J84" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="K84" s="2">
-        <v>73.6</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="L84" s="2">
-        <v>860.0</v>
+        <v>860</v>
       </c>
       <c r="M84" s="2">
-        <v>59.0</v>
-      </c>
-      <c r="N84" s="3">
-        <f t="shared" si="1"/>
-        <v>13.93095238</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B85" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C85" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E85" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F85" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H85" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="I85" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="J85" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K85" s="2">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="L85" s="2">
-        <v>563.8</v>
+        <v>563.79999999999995</v>
       </c>
       <c r="M85" s="2">
-        <v>41.0</v>
-      </c>
-      <c r="N85" s="3">
-        <f t="shared" si="1"/>
-        <v>9.10952381</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B86" s="2">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C86" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F86" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G86" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H86" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="I86" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J86" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="K86" s="2">
-        <v>36.3</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="L86" s="2">
-        <v>395.0</v>
+        <v>395</v>
       </c>
       <c r="M86" s="2">
-        <v>34.0</v>
-      </c>
-      <c r="N86" s="3">
-        <f t="shared" si="1"/>
-        <v>6.764285714</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B87" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I87" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K87" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L87" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="M87" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="N87" s="3">
-        <f t="shared" si="1"/>
-        <v>0.2857142857</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C88" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E88" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F88" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G88" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H88" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I88" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J88" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K88" s="2">
         <v>19.2</v>
       </c>
       <c r="L88" s="2">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="M88" s="2">
         <v>19.7</v>
       </c>
-      <c r="N88" s="3">
-        <f t="shared" si="1"/>
-        <v>5.545238095</v>
-      </c>
-    </row>
-    <row r="89">
+    </row>
+    <row r="89" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C89" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F89" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G89" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H89" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I89" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J89" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K89" s="2">
         <v>29.5</v>
       </c>
       <c r="L89" s="2">
-        <v>316.0</v>
+        <v>316</v>
       </c>
       <c r="M89" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="N89" s="3">
-        <f t="shared" si="1"/>
-        <v>4.985714286</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B90" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C90" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F90" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G90" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H90" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I90" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J90" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K90" s="2">
         <v>37.5</v>
       </c>
       <c r="L90" s="2">
-        <v>216.0</v>
+        <v>216</v>
       </c>
       <c r="M90" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="N90" s="3">
-        <f t="shared" si="1"/>
-        <v>4.876190476</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B91" s="2">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G91" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H91" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="I91" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="J91" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="K91" s="2">
-        <v>18.1</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="M91" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="N91" s="3">
-        <f t="shared" si="1"/>
-        <v>5.554761905</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B92" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C92" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L92" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M92" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N92" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C93" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L93" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M93" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N93" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C94" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G94" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H94" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I94" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J94" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="K94" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L94" s="2">
-        <v>134.0</v>
+        <v>134</v>
       </c>
       <c r="M94" s="2">
         <v>18.5</v>
       </c>
-      <c r="N94" s="3">
-        <f t="shared" si="1"/>
-        <v>1.471428571</v>
-      </c>
-    </row>
-    <row r="95">
+    </row>
+    <row r="95" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B95" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C95" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L95" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M95" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N95" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B96" s="2">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="C96" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J96" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K96" s="2">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L96" s="2">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="M96" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="N96" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4285714286</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B97" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C97" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L97" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M97" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N97" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>141.0</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C98" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L98" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M98" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N98" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>148.0</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C99" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L99" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M99" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N99" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B100" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C100" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H100" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I100" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J100" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="K100" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L100" s="2">
         <v>6.1</v>
       </c>
       <c r="M100" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="N100" s="3">
-        <f t="shared" si="1"/>
-        <v>0.3095238095</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="B101" s="2">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="C101" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L101" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M101" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="N101" s="3">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>